--- a/RESULT/SCM/OM/生产订单维护及时率.xlsx
+++ b/RESULT/SCM/OM/生产订单维护及时率.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Python\Source\KPI\RESULT\SCM\OM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75E1656-2985-46CE-9F2C-577242DB2028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="生产订单维护及时率" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -49,108 +55,114 @@
     <t>00000530</t>
   </si>
   <si>
+    <t>0000000152</t>
+  </si>
+  <si>
+    <t>SC20210510003</t>
+  </si>
+  <si>
+    <t>测力机构</t>
+  </si>
+  <si>
+    <t>4.00000</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>SC20210917006</t>
+  </si>
+  <si>
+    <t>横梁</t>
+  </si>
+  <si>
+    <t>5.00000</t>
+  </si>
+  <si>
+    <t>SC20210917008</t>
+  </si>
+  <si>
+    <t>右连杆</t>
+  </si>
+  <si>
+    <t>左连杆</t>
+  </si>
+  <si>
+    <t>横梁体</t>
+  </si>
+  <si>
+    <t>SC20210917009</t>
+  </si>
+  <si>
+    <t>SC20210917011</t>
+  </si>
+  <si>
+    <t>SC20210924003</t>
+  </si>
+  <si>
+    <t>主传动装置</t>
+  </si>
+  <si>
+    <t>SC20210924006</t>
+  </si>
+  <si>
     <t>00000532</t>
   </si>
   <si>
+    <t>0000000153</t>
+  </si>
+  <si>
+    <t>SC20210924005</t>
+  </si>
+  <si>
+    <t>底座体</t>
+  </si>
+  <si>
+    <t>SC20210927001</t>
+  </si>
+  <si>
     <t>00000547</t>
   </si>
   <si>
-    <t>0000000152</t>
-  </si>
-  <si>
-    <t>0000000153</t>
-  </si>
-  <si>
     <t>0000000154</t>
   </si>
   <si>
-    <t>SC20210510003</t>
-  </si>
-  <si>
-    <t>SC20210917006</t>
-  </si>
-  <si>
-    <t>SC20210917008</t>
-  </si>
-  <si>
-    <t>SC20210917009</t>
-  </si>
-  <si>
-    <t>SC20210917011</t>
-  </si>
-  <si>
-    <t>SC20210924003</t>
-  </si>
-  <si>
-    <t>SC20210924006</t>
-  </si>
-  <si>
-    <t>SC20210924005</t>
-  </si>
-  <si>
-    <t>SC20210927001</t>
-  </si>
-  <si>
-    <t>测力机构</t>
-  </si>
-  <si>
-    <t>横梁</t>
-  </si>
-  <si>
-    <t>右连杆</t>
-  </si>
-  <si>
-    <t>左连杆</t>
-  </si>
-  <si>
-    <t>横梁体</t>
-  </si>
-  <si>
-    <t>主传动装置</t>
-  </si>
-  <si>
-    <t>底座体</t>
-  </si>
-  <si>
     <t>曲柄齿轮</t>
   </si>
   <si>
     <t>主传动机构</t>
   </si>
   <si>
-    <t>4.00000</t>
-  </si>
-  <si>
-    <t>5.00000</t>
-  </si>
-  <si>
     <t>2.00000</t>
-  </si>
-  <si>
-    <t>正常</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -194,13 +206,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -488,14 +508,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,27 +560,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>44478</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>888500039</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2">
         <v>44478</v>
@@ -556,30 +589,30 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>44478</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>888515441</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2">
         <v>44478</v>
@@ -588,30 +621,30 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>44478</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>888515440</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2">
         <v>44478</v>
@@ -620,30 +653,30 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
         <v>44478</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>888515442</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2">
         <v>44478</v>
@@ -652,30 +685,30 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
         <v>44478</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>888515452</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2">
         <v>44478</v>
@@ -684,30 +717,30 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>44478</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>888515441</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2">
         <v>44478</v>
@@ -716,30 +749,30 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <v>44478</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>888515440</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2">
         <v>44478</v>
@@ -748,30 +781,30 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>44478</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>888515442</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H9" s="2">
         <v>44478</v>
@@ -780,30 +813,30 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>44478</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>888515452</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2">
         <v>44478</v>
@@ -812,30 +845,30 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>44478</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>888515259</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2">
         <v>44478</v>
@@ -844,53 +877,53 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2">
         <v>44478</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>888515259</v>
       </c>
       <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="2">
+        <v>44478</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44478</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="2">
-        <v>44478</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44478</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
       </c>
       <c r="E13">
         <v>888515671</v>
@@ -899,7 +932,7 @@
         <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H13" s="2">
         <v>44478</v>
@@ -908,21 +941,21 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>44478</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>888515671</v>
@@ -931,7 +964,7 @@
         <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H14" s="2">
         <v>44478</v>
@@ -940,30 +973,30 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2">
         <v>44487</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>888500277</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H15" s="2">
         <v>44487</v>
@@ -972,30 +1005,30 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2">
         <v>44487</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>888510345</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16" s="2">
         <v>44487</v>
@@ -1004,10 +1037,11 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>